--- a/Concept/Backlog-PyLinX.xlsx
+++ b/Concept/Backlog-PyLinX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-12" windowWidth="6432" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="-12" windowWidth="6432" windowHeight="6720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -219,8 +219,12 @@
 19.09.2016 Däubler, neu erstellt</t>
   </si>
   <si>
-    <t>24.10.2016 kein Entfernen über MAC Tastatur möglich, Programmierung über Qt.Key_Backspace
+    <t>14.11.2016 ein Test mit sin Generator funktioniert nicht, bitte Meldung an Plaum, es können keine Variablen gelöscht werden, "Neues Projekt" funktionert nicht
+24.10.2016 kein Entfernen über MAC Tastatur möglich, Programmierung über Qt.Key_Backspace
 24.10.2016 kein Export von csv-Dateien möglich, Plaum hilft</t>
+  </si>
+  <si>
+    <t>1.2</t>
   </si>
 </sst>
 </file>
@@ -323,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -383,6 +387,7 @@
     <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -694,11 +699,11 @@
   </sheetPr>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:B5"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,10 +711,10 @@
     <col min="1" max="1" width="5" style="4" customWidth="1"/>
     <col min="2" max="2" width="4.109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="20.5546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="73.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="6.21875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="59.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="77.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="59.33203125" style="4" customWidth="1"/>
     <col min="8" max="16384" width="11.44140625" style="4"/>
   </cols>
   <sheetData>
@@ -762,7 +767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -776,7 +781,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4">
         <v>10</v>
@@ -1240,19 +1245,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G164"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.21875" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+      <c r="C3" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1260,7 +1266,7 @@
       <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="20" t="s">
@@ -1312,7 +1318,7 @@
       <c r="B10" s="17">
         <v>42657</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="20">
         <v>5</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -1328,7 +1334,7 @@
         <v>42658</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F19" si="0">F10+C11</f>
+        <f t="shared" ref="F11:F41" si="0">F10+C11</f>
         <v>5</v>
       </c>
     </row>
@@ -1411,146 +1417,240 @@
       <c r="B20" s="18">
         <v>42667</v>
       </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" s="18">
         <v>42668</v>
       </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="18">
         <v>42669</v>
       </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" s="18">
         <v>42670</v>
       </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" s="18">
         <v>42671</v>
       </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" s="18">
         <v>42672</v>
       </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="18">
         <v>42673</v>
       </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" s="18">
         <v>42674</v>
       </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="18">
         <v>42675</v>
       </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="18">
         <v>42676</v>
       </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" s="18">
         <v>42677</v>
       </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" s="18">
         <v>42678</v>
       </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" s="18">
         <v>42679</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B33" s="18">
         <v>42680</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
       <c r="B34" s="17">
         <v>42681</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B35" s="17">
         <v>42682</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B36" s="17">
         <v>42683</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B37" s="17">
         <v>42684</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38" s="17">
         <v>42685</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="17">
         <v>42686</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="17">
         <v>42687</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B41" s="17">
         <v>42688</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" s="27">
+        <v>10</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B42" s="17">
         <v>42689</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B43" s="17">
         <v>42690</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="17">
         <v>42691</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45" s="17">
         <v>42692</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46" s="17">
         <v>42693</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47" s="17">
         <v>42694</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4</v>
       </c>
@@ -2169,13 +2269,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="16" customWidth="1"/>
     <col min="2" max="2" width="63.44140625" style="7" customWidth="1"/>
     <col min="3" max="4" width="14.88671875" style="7" customWidth="1"/>
     <col min="5" max="5" width="80.5546875" style="7" customWidth="1"/>
@@ -2337,7 +2437,7 @@
   <cols>
     <col min="1" max="1" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="18.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">

--- a/Concept/Backlog-PyLinX.xlsx
+++ b/Concept/Backlog-PyLinX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-12" windowWidth="6432" windowHeight="6720" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="-12" windowWidth="6432" windowHeight="5832"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>GiTHub: einen Zweig für das Projekt und von diesem abgeleitet einen Zweig für den Diplomanden. Zwischenergebnisse werden dann vom Branch des Diplomanden in den Branch des Projektes gemergt (https://github.com/PyLinX-Project/PyLinX)</t>
-  </si>
-  <si>
-    <t>10.10.2016 im Anschluss an die Sprint-Reviews</t>
   </si>
   <si>
     <t xml:space="preserve">Problem: Bislang gibt es keinen Testprozess, da das Projekt bislang nach dem "Genie-Prinzip" entwickelt wird. Da brauchen wir irgendeine pragmatische Lösung. Könnte durchaus Teil einer eigenen Arbeit sein, eine Teststrategie mit automatisierten UnitTests etc, aufzusetzen. Die Umsetzung des Command-Patterns bietet aber schon einige Möglichkeiten, da wir so gezielt alle Userszenarien reproduzieren können. Wir könnten uns hier ein paar Testfälle definieren. </t>
@@ -225,6 +222,19 @@
   </si>
   <si>
     <t>1.2</t>
+  </si>
+  <si>
+    <t>28.11.2016 Darstellung der Pakete, Klassen und import/attribut-Beziehungen über Mindmaps</t>
+  </si>
+  <si>
+    <t>28.11.2016 Basis "12 Prinzipien der agilten Entwicklung", online Quelle agilte_tutorial …</t>
+  </si>
+  <si>
+    <t>10.10.2016 im Anschluss an die Sprint-Reviews
+in Absprache (Plaum/Däubler)</t>
+  </si>
+  <si>
+    <t>28.11.2016 wir nutzen GitHub über das WebInteface - dort können die nötigsten Aufgaben (upload/download comit, pull request etc. durchgeführt werden)</t>
   </si>
 </sst>
 </file>
@@ -327,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -388,6 +398,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -699,11 +712,11 @@
   </sheetPr>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I2" s="21" t="s">
         <v>19</v>
@@ -787,10 +800,10 @@
         <v>10</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -809,7 +822,9 @@
       <c r="F4" s="4">
         <v>10</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="28" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
@@ -822,7 +837,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>10</v>
@@ -830,7 +845,9 @@
       <c r="F5" s="4">
         <v>20</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="28" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -843,7 +860,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>10</v>
@@ -864,7 +881,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>10</v>
@@ -885,7 +902,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>10</v>
@@ -918,7 +935,7 @@
     </row>
     <row r="10" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D10" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="25"/>
     </row>
@@ -1246,8 +1263,8 @@
   <dimension ref="A3:G164"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <pane ySplit="5" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1264,7 +1281,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>4</v>
@@ -1322,7 +1339,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10">
         <f>F9+C10</f>
@@ -1613,7 +1630,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
@@ -2269,8 +2286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2329,13 +2346,13 @@
         <v>45</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
@@ -2343,10 +2360,10 @@
         <v>45</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2357,10 +2374,10 @@
         <v>44</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -2374,7 +2391,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2385,15 +2402,15 @@
         <v>45</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>47</v>
@@ -2405,9 +2422,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>49</v>
@@ -2416,7 +2433,10 @@
         <v>44</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>10</v>
+        <v>48</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
